--- a/test/MarkLogic-Hadoop Test Cases.xlsx
+++ b/test/MarkLogic-Hadoop Test Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/TopCoder/marklogic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/TopCoder/marklogic-hive-poc/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9388533B-DD5A-B34D-8170-A34505BDD17D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{26BCE781-A64E-474C-B866-BAC6A2B8036F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Ingestion Setup and Tests</t>
   </si>
@@ -34,45 +34,18 @@
     <t>Total number of records in all Tiers</t>
   </si>
   <si>
-    <t>Number of records in T1</t>
-  </si>
-  <si>
-    <t>Number of records in T2</t>
-  </si>
-  <si>
-    <t>Number of records in T3</t>
-  </si>
-  <si>
-    <t>T1 configuration</t>
-  </si>
-  <si>
     <t>0-6 months</t>
   </si>
   <si>
-    <t>T2 configuration</t>
-  </si>
-  <si>
-    <t>T3 configuration</t>
-  </si>
-  <si>
     <t>Time taken to ingest in to T1 (seconds)</t>
   </si>
   <si>
     <t>Time taken to ingest in to T2 (seconds)</t>
   </si>
   <si>
-    <t>Time taken to ingest in to T3 (seconds)</t>
-  </si>
-  <si>
     <t>Test Query</t>
   </si>
   <si>
-    <t>SELECT * FROM ACCOUNTS</t>
-  </si>
-  <si>
-    <t>SELECT * FROM POSITIONS</t>
-  </si>
-  <si>
     <t>SELECT * FROM INSTRUMENT</t>
   </si>
   <si>
@@ -88,23 +61,32 @@
     <t>Time to query T2 (seconds)</t>
   </si>
   <si>
-    <t>Number of records found in T3</t>
-  </si>
-  <si>
-    <t>Time to query T3 (seconds)</t>
-  </si>
-  <si>
-    <t>6-18 months</t>
-  </si>
-  <si>
-    <t>18+ months</t>
+    <t>T1(MarkLogic) configuration</t>
+  </si>
+  <si>
+    <t>6+ months</t>
+  </si>
+  <si>
+    <t>T2(Hive) configuration</t>
+  </si>
+  <si>
+    <t>Number of records in T2(Hive)</t>
+  </si>
+  <si>
+    <t>Number of records in T1(MarkLogic)</t>
+  </si>
+  <si>
+    <t>SELECT * FROM TRANSACTION</t>
+  </si>
+  <si>
+    <t>SELECT * FROM POSITION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -118,6 +100,17 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -208,6 +201,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,10 +523,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -552,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -560,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -568,206 +566,151 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>47611</v>
+        <v>1430312</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>28671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1401641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>9292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>7300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>31019</v>
-      </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3">
+        <v>19998</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5465</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3208</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="B16" s="3">
+        <v>1220001</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45976</v>
+      </c>
+      <c r="D16" s="3">
+        <v>135664</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3">
-        <v>7611</v>
+        <v>180</v>
       </c>
       <c r="C17" s="3">
-        <v>1681</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>7300</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>11019</v>
-      </c>
-      <c r="D21" s="3">
-        <v>20000</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3">
-        <v>20</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/test/MarkLogic-Hadoop Test Cases.xlsx
+++ b/test/MarkLogic-Hadoop Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/TopCoder/marklogic-hive-poc/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{26BCE781-A64E-474C-B866-BAC6A2B8036F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9F4C137A-37CD-2042-B9E1-D62BC955606F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="780" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Set 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Ingestion Setup and Tests</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>SELECT * FROM POSITION</t>
+  </si>
+  <si>
+    <t>SELECT * FROM POSITION WHERE BusinessDate &gt; '2017-01-01' AND BusinessDate &lt; '2018-12-31'</t>
+  </si>
+  <si>
+    <t>SELECT * FROM TRANSACTION WHERE TradeDate &gt; '2017-01-01' AND TradeDate &lt; '2018-12-31'</t>
+  </si>
+  <si>
+    <t>SELECT * FROM POSITION INNER JOIN INSTRUMENT ON POSITION.InstrumentId=INSTRUMENT.InstrumentId WHERE INSTRUMENT.AddedDate &gt; '2001-01-01' AND INSTRUMENT.AddedDate &lt; '2018-12-31'</t>
   </si>
 </sst>
 </file>
@@ -185,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -196,16 +205,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,29 +540,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.6640625" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" customWidth="1"/>
-    <col min="5" max="5" width="31.1640625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="6" max="6" width="50.1640625" customWidth="1"/>
+    <col min="7" max="7" width="122.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -553,7 +571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -561,7 +579,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -569,39 +587,39 @@
         <v>1430312</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>28671</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="3">
         <v>1401641</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -609,7 +627,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -617,31 +635,39 @@
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -654,10 +680,17 @@
       <c r="D14" s="3">
         <v>3208</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="3">
+        <v>5465</v>
+      </c>
+      <c r="F14" s="3">
+        <v>19998</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -670,10 +703,17 @@
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -686,10 +726,17 @@
       <c r="D16" s="3">
         <v>135664</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="3">
+        <v>45976</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1220001</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -702,13 +749,20 @@
       <c r="D17" s="3">
         <v>50</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="3">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3">
+        <v>180</v>
+      </c>
+      <c r="G17" s="3">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/test/MarkLogic-Hadoop Test Cases.xlsx
+++ b/test/MarkLogic-Hadoop Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/TopCoder/marklogic-hive-poc/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9F4C137A-37CD-2042-B9E1-D62BC955606F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DBA2B1BD-2269-984A-839A-EEF7902AC562}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="780" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Set 1" sheetId="1" r:id="rId1"/>
@@ -542,8 +542,8 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -592,7 +592,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="3">
-        <v>28671</v>
+        <v>28672</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -600,7 +600,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3">
-        <v>1401641</v>
+        <v>1401640</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -672,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="3">
-        <v>19998</v>
+        <v>19999</v>
       </c>
       <c r="C14" s="3">
         <v>5465</v>
@@ -684,7 +684,7 @@
         <v>5465</v>
       </c>
       <c r="F14" s="3">
-        <v>19998</v>
+        <v>19999</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
@@ -718,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="3">
-        <v>1220001</v>
+        <v>1220000</v>
       </c>
       <c r="C16" s="3">
         <v>45976</v>
@@ -730,7 +730,7 @@
         <v>45976</v>
       </c>
       <c r="F16" s="3">
-        <v>1220001</v>
+        <v>1220000</v>
       </c>
       <c r="G16" s="3">
         <v>45896</v>
@@ -744,7 +744,7 @@
         <v>180</v>
       </c>
       <c r="C17" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3">
         <v>50</v>
